--- a/BIO247Project/BIO247ProjectArticles/SLC44A4path.xlsx
+++ b/BIO247Project/BIO247ProjectArticles/SLC44A4path.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8e56c0a1657867c1/Desktop/BIO247/BIO247Project/BIO247ProjectArticles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{ECC7AF74-169B-478E-9ABB-27648232806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9617B071-0540-4893-BA67-14223F39D29D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{ECC7AF74-169B-478E-9ABB-27648232806A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A16E9928-9270-48A8-AC65-15B79DF72BFF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C4BA4BDC-51D1-4D58-BE1E-38A3DC2D88C4}"/>
   </bookViews>
@@ -41,51 +41,6 @@
     <t>pathways</t>
   </si>
   <si>
-    <t>TCGA-ACC [miRNA vs RNA] GO: lysosome organization [2040008599]</t>
-  </si>
-  <si>
-    <t>TCGA-ACC [miRNA vs RNA] GO: sex determination (2040008648)</t>
-  </si>
-  <si>
-    <t>TCGA-ESCA [miRNA vs RNA] GO: epithelial structure maintenance [2040005701]</t>
-  </si>
-  <si>
-    <t>TCGA-KIRP [miRNA vs RNA] GO: actin cytoskeleton organization [2040001290]</t>
-  </si>
-  <si>
-    <t>TCGA-ACC [miRNA vs RNA] GO: vasculature development [2040008633]</t>
-  </si>
-  <si>
-    <t>TCGA-LUSC [miRNA vs RNA] GO: digestion [2040012939]</t>
-  </si>
-  <si>
-    <t>TCGA-TGCT [miRNA vs RNA] GO: drug catabolic process [2040006639]</t>
-  </si>
-  <si>
-    <t>TCGA-PCPG [miRNA vs RNA] GO: extracellular structure organization [2040012307]</t>
-  </si>
-  <si>
-    <t>TCGA-READ [miRNA vs RNA] GO: endocrine system development [2040002570]</t>
-  </si>
-  <si>
-    <t>TCGA-BRCA [miRNA vs RNA] GO: gland morphogenesis [2040004924]</t>
-  </si>
-  <si>
-    <t>TCGA-KIRP [miRNA vs RNA] GO: anatomical structure formation involved in morphogenesis [2040001283]</t>
-  </si>
-  <si>
-    <t>TCGA-PAAD [miRNA vs RNA] GO: cellular response to xenobiotic stimulus [2040018593]</t>
-  </si>
-  <si>
-    <t>TCGA-UCS [miRNA vs RNA] GO: epidermis development [2040004289]</t>
-  </si>
-  <si>
-    <t>TCGA-CESC [miRNA vs RNA] GO: keratinization [2040023716]</t>
-  </si>
-  <si>
-    <t>TCGA-STES [miRNA vs RNA] GO: digestion [2040019726]</t>
-  </si>
-  <si>
     <t>Metabolism</t>
   </si>
   <si>
@@ -276,6 +231,51 @@
   </si>
   <si>
     <t>FunCoup 5 (H. sapiens) - High Confidence  PFC &gt; 0.95</t>
+  </si>
+  <si>
+    <t>TCGA-ACC [miRNA vs RNA] GO: lysosome organization</t>
+  </si>
+  <si>
+    <t>TCGA-ACC [miRNA vs RNA] GO: sex determination</t>
+  </si>
+  <si>
+    <t>TCGA-ESCA [miRNA vs RNA] GO: epithelial structure maintenance</t>
+  </si>
+  <si>
+    <t>TCGA-KIRP [miRNA vs RNA] GO: actin cytoskeleton organization</t>
+  </si>
+  <si>
+    <t>TCGA-ACC [miRNA vs RNA] GO: vasculature development</t>
+  </si>
+  <si>
+    <t>TCGA-LUSC [miRNA vs RNA] GO: digestion</t>
+  </si>
+  <si>
+    <t>TCGA-TGCT [miRNA vs RNA] GO: drug catabolic process</t>
+  </si>
+  <si>
+    <t>TCGA-PCPG [miRNA vs RNA] GO: extracellular structure organization</t>
+  </si>
+  <si>
+    <t>TCGA-READ [miRNA vs RNA] GO: endocrine system development</t>
+  </si>
+  <si>
+    <t>TCGA-BRCA [miRNA vs RNA] GO: gland morphogenesis</t>
+  </si>
+  <si>
+    <t>TCGA-KIRP [miRNA vs RNA] GO: anatomical structure formation involved in morphogenesis</t>
+  </si>
+  <si>
+    <t>TCGA-PAAD [miRNA vs RNA] GO: cellular response to xenobiotic stimulus</t>
+  </si>
+  <si>
+    <t>TCGA-UCS [miRNA vs RNA] GO: epidermis development</t>
+  </si>
+  <si>
+    <t>TCGA-CESC [miRNA vs RNA] GO: keratinization</t>
+  </si>
+  <si>
+    <t>TCGA-STES [miRNA vs RNA] GO: digestion</t>
   </si>
 </sst>
 </file>
@@ -633,7 +633,7 @@
   <dimension ref="A1:A84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,412 +645,412 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
